--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_3_9.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_3_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_24</t>
+          <t>model_3_9_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992443223829029</v>
+        <v>0.3122757150630314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7139759705796297</v>
+        <v>-0.3878164121035341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9982390552155047</v>
+        <v>0.3033645620344083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981309234678458</v>
+        <v>-0.3402954066405866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9988412552418509</v>
+        <v>0.3147510232686105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004486028770821452</v>
+        <v>0.4082628436808154</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1697962194586572</v>
+        <v>0.8238677727720853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004139343634786346</v>
+        <v>0.6786833827987729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006590099777643126</v>
+        <v>0.2815705006597134</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005364715849322582</v>
+        <v>0.4801269417292431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01458784468851607</v>
+        <v>0.4153080131210624</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02118024733288413</v>
+        <v>0.6389544926525014</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000490169265144</v>
+        <v>-0.1789559170348032</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02208193431100127</v>
+        <v>0.666156108222859</v>
       </c>
       <c r="P2" t="n">
-        <v>137.4187450448597</v>
+        <v>21.7916881745875</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.7701703618199</v>
+        <v>33.98044642326951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_23</t>
+          <t>model_3_9_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9992289689008522</v>
+        <v>0.3122333838625014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.713878618601052</v>
+        <v>-0.3881881382061314</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998203709835376</v>
+        <v>0.3030575955119815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998092509715798</v>
+        <v>-0.3388649417079264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9988176592363052</v>
+        <v>0.3147520632138725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000457717367263345</v>
+        <v>0.4082879733100626</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1698540117985274</v>
+        <v>0.8240884454443186</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004222427826603719</v>
+        <v>0.6789824388997013</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006725541240030705</v>
+        <v>0.2812699872614955</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005473959808392003</v>
+        <v>0.4801262130805984</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01473621410061397</v>
+        <v>0.4152732042656039</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02139433025975212</v>
+        <v>0.638974156997028</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000500128280528</v>
+        <v>-0.1790284848071404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02230513119127878</v>
+        <v>0.666176609719243</v>
       </c>
       <c r="P3" t="n">
-        <v>137.378517332762</v>
+        <v>21.79156507322635</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.7299426497223</v>
+        <v>33.98032332190836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_22</t>
+          <t>model_3_9_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9992132881801681</v>
+        <v>0.3119060044201915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7137799986451328</v>
+        <v>-0.3885013932147794</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981676722067333</v>
+        <v>0.3008139728822139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9980532862954974</v>
+        <v>-0.3285288928744834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987935697729414</v>
+        <v>0.314741788243231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004670261204333212</v>
+        <v>0.4084823198890734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1699125568645214</v>
+        <v>0.8242744071493637</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000430713924404765</v>
+        <v>0.6811682441474812</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006863837478282282</v>
+        <v>0.2790985805473813</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005585488361164965</v>
+        <v>0.4801334123474313</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01488618347752603</v>
+        <v>0.4150232962185295</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02161078713127593</v>
+        <v>0.6391262159300566</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00051029955881</v>
+        <v>-0.1795897067082433</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02253080307995086</v>
+        <v>0.666335142115856</v>
       </c>
       <c r="P4" t="n">
-        <v>137.3382507389083</v>
+        <v>21.79061329236803</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.6896760558685</v>
+        <v>33.97937154105004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_21</t>
+          <t>model_3_9_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9991972962654414</v>
+        <v>0.3121004021848642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7136803256188022</v>
+        <v>-0.3885276410645728</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9981309149565663</v>
+        <v>0.3021192992921536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9980132479172981</v>
+        <v>-0.3345146434507751</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9987689906274302</v>
+        <v>0.3147519190915429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004765196118298405</v>
+        <v>0.4083669169784174</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1699717270786017</v>
+        <v>0.8242899890068492</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004393542231154749</v>
+        <v>0.6798965555492933</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0007005007142942357</v>
+        <v>0.2803560725735721</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0005699284027172705</v>
+        <v>0.4801263140614327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01503759749731953</v>
+        <v>0.4151674731282091</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02182932916582277</v>
+        <v>0.6390359277680853</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000520672692687</v>
+        <v>-0.1792564533973755</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02275864890135273</v>
+        <v>0.6662410101999072</v>
       </c>
       <c r="P5" t="n">
-        <v>137.2980033552542</v>
+        <v>21.79117840478396</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.6494286722144</v>
+        <v>33.97993665346596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_20</t>
+          <t>model_3_9_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9991809739232131</v>
+        <v>0.3120054156176315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.713579514850347</v>
+        <v>-0.3885513830598575</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9980933927120788</v>
+        <v>0.3014748770439812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.997972374028359</v>
+        <v>-0.3315584456273644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.998743900420022</v>
+        <v>0.3147470844170706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004862092592649531</v>
+        <v>0.4084233051079328</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1700315727055552</v>
+        <v>0.8243040832808509</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004481743442941815</v>
+        <v>0.6805243712582065</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007149122700424912</v>
+        <v>0.2797350317962458</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005815445789630498</v>
+        <v>0.4801297015272261</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01519063566126966</v>
+        <v>0.4150968096045963</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02205015327078143</v>
+        <v>0.6390800459315975</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000531260157916</v>
+        <v>-0.1794192875126317</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02298887394562841</v>
+        <v>0.6662870065649774</v>
       </c>
       <c r="P6" t="n">
-        <v>137.2577429042304</v>
+        <v>21.79090225980533</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.6091682211906</v>
+        <v>33.97966050848733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_19</t>
+          <t>model_3_9_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9991643242409055</v>
+        <v>0.3084882592109636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7134774558992012</v>
+        <v>-0.4118115955340795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9980551262022246</v>
+        <v>0.283551577855195</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997930696017759</v>
+        <v>-0.2534033259490112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987183144339796</v>
+        <v>0.3140031278999948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004960932299116044</v>
+        <v>0.4105112410841767</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1700921593076724</v>
+        <v>0.8381123501944095</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004571694153142849</v>
+        <v>0.6979857932034977</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007296073477272844</v>
+        <v>0.2633161318523062</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005933902890624493</v>
+        <v>0.480650962527902</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01534517492914337</v>
+        <v>0.4131047386095261</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02227315042627792</v>
+        <v>0.6407115115901826</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000542059951845</v>
+        <v>-0.1854486984954911</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02322136455170213</v>
+        <v>0.6679879270942479</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2174933707416</v>
+        <v>21.78070393316217</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.5689186877019</v>
+        <v>33.96946218184418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_18</t>
+          <t>model_3_9_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9991473296572563</v>
+        <v>0.3087347987058431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7133742908983183</v>
+        <v>-0.4120504818351249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9980160347820544</v>
+        <v>0.2845790943533723</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9978881371889422</v>
+        <v>-0.2576447375102697</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986921863293703</v>
+        <v>0.3140816238837386</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005061819488935698</v>
+        <v>0.4103648845900645</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1701534025086925</v>
+        <v>0.838254163422061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004663583928836646</v>
+        <v>0.6969847554513831</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0007446129894704927</v>
+        <v>0.2642071715222852</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0006054869873149862</v>
+        <v>0.4805959634868341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01550130074612982</v>
+        <v>0.4132160151694273</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02249848770236724</v>
+        <v>0.6405972873733268</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000553083465564</v>
+        <v>-0.1850260593614117</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02345629490214704</v>
+        <v>0.6678688401160038</v>
       </c>
       <c r="P8" t="n">
-        <v>137.1772287410352</v>
+        <v>21.78141710530148</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.5286540579954</v>
+        <v>33.97017535398349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_17</t>
+          <t>model_3_9_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9991299988639075</v>
+        <v>0.3083567290891852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7132697537080477</v>
+        <v>-0.4120814271405076</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9979761838358945</v>
+        <v>0.2830138728391041</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9978447228390577</v>
+        <v>-0.2512070890539202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986655446393798</v>
+        <v>0.3139585549185038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005164702564767127</v>
+        <v>0.4105893230462697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1702154603006087</v>
+        <v>0.8382725338921037</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000475725907514424</v>
+        <v>0.6985096417466241</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007599202758549258</v>
+        <v>0.2628547443708195</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006178214635263858</v>
+        <v>0.4806821930587217</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01565890671526191</v>
+        <v>0.4130481296682532</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02272598196947082</v>
+        <v>0.6407724424834995</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000564325061249</v>
+        <v>-0.185674178704254</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02369347407117927</v>
+        <v>0.6680514519418377</v>
       </c>
       <c r="P9" t="n">
-        <v>137.1369857154974</v>
+        <v>21.7803235560647</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.4884110324576</v>
+        <v>33.96908180474671</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_16</t>
+          <t>model_3_9_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991123039475382</v>
+        <v>0.308610564660307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7131641278294111</v>
+        <v>-0.4122531307310728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9979354946552805</v>
+        <v>0.2840594464543116</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9978004592277097</v>
+        <v>-0.2555015624200905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986383569377874</v>
+        <v>0.314041649789676</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005269747232141028</v>
+        <v>0.4104386352861261</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1702781643849677</v>
+        <v>0.8383744645606721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004852904607168631</v>
+        <v>0.6974910122031623</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007755269998324405</v>
+        <v>0.2637569313139301</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006304087302746518</v>
+        <v>0.4806239717585462</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01581820768794287</v>
+        <v>0.4131603303103272</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02295593002285254</v>
+        <v>0.6406548487962346</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00057580284484</v>
+        <v>-0.1852390320109023</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02393321148925154</v>
+        <v>0.6679288520478533</v>
       </c>
       <c r="P10" t="n">
-        <v>137.0967159482276</v>
+        <v>21.78105769799157</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.4481412651878</v>
+        <v>33.96981594667358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_15</t>
+          <t>model_3_9_6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990942556049922</v>
+        <v>0.3116146999171328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7130573137902034</v>
+        <v>-0.4155651058628855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9978940226235904</v>
+        <v>0.2988598252808033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977552244137022</v>
+        <v>-0.3192483615203974</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986105919962764</v>
+        <v>0.3147745235895272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005376889989972532</v>
+        <v>0.4086552508257884</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1703415738127676</v>
+        <v>0.8403405960687923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004950390338640705</v>
+        <v>0.6830720340386278</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0007914761561459523</v>
+        <v>0.2771489179231485</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0006432632455362301</v>
+        <v>0.4801104759808881</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01597912852361488</v>
+        <v>0.4147619899893011</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02318812193769157</v>
+        <v>0.6392614886146266</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000587509877843</v>
+        <v>-0.1800890858563438</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0241752882946088</v>
+        <v>0.6664761736386612</v>
       </c>
       <c r="P11" t="n">
-        <v>137.056460467454</v>
+        <v>21.78976677180408</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.4078857844142</v>
+        <v>33.97852502048608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_14</t>
+          <t>model_3_9_4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9990758467434866</v>
+        <v>0.3095389507590007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7129491160719661</v>
+        <v>-0.4196723660201345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9978516786363727</v>
+        <v>0.2880785960966556</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9977091176740376</v>
+        <v>-0.2722018704952491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9985822980951695</v>
+        <v>0.3143322051345409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005486172944083991</v>
+        <v>0.4098875051937502</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1704058046522114</v>
+        <v>0.8427788431225357</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005049925721864607</v>
+        <v>0.6935754346620506</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0008077327411270587</v>
+        <v>0.267265347505313</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006563626566567597</v>
+        <v>0.4804203910836818</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01614153423044052</v>
+        <v>0.4135860821271153</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02342258086566036</v>
+        <v>0.6402245740314489</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000599450760982</v>
+        <v>-0.18364751298457</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02441972862453811</v>
+        <v>0.6674802595955392</v>
       </c>
       <c r="P12" t="n">
-        <v>137.0162189106685</v>
+        <v>21.78374506901683</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.3676442276288</v>
+        <v>33.97250331769884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_13</t>
+          <t>model_3_9_5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.99905705906007</v>
+        <v>0.3103102883591243</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7128398126573399</v>
+        <v>-0.419838937363469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9978084848419516</v>
+        <v>0.2917284440207519</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9976620875848817</v>
+        <v>-0.2877694307442238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9985534246614501</v>
+        <v>0.3145358309218028</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005597704748700812</v>
+        <v>0.4094296058742675</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1704706918807951</v>
+        <v>0.8428777270674466</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005151458694149428</v>
+        <v>0.6900196420611737</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0008243148860931193</v>
+        <v>0.2705357949840079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006697303777540309</v>
+        <v>0.4802777185225908</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01630563581254562</v>
+        <v>0.4139804190399427</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02365946903187139</v>
+        <v>0.6398668657418256</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000611637366441</v>
+        <v>-0.1823252199557868</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02466670161041084</v>
+        <v>0.6671073229234684</v>
       </c>
       <c r="P13" t="n">
-        <v>136.9759674491133</v>
+        <v>21.78598058618581</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.3273927660736</v>
+        <v>33.97473883486781</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9990378866864317</v>
+        <v>0.312452699094883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7127291689015705</v>
+        <v>-0.4257898026563882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.997764425110594</v>
+        <v>0.3088504524693084</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9976140685909046</v>
+        <v>-0.3761003462166852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9985239548429269</v>
+        <v>0.3131971939069659</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0005711520240652803</v>
+        <v>0.4081577783141961</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1705363747937813</v>
+        <v>0.8464104177693189</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005255027170657801</v>
+        <v>0.6733388618698716</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0008412457049273143</v>
+        <v>0.2890924355351019</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006833742109965471</v>
+        <v>0.4812156487024868</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01647142070005394</v>
+        <v>0.4169460635904689</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02389878708355887</v>
+        <v>0.638872270735079</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000624073500693</v>
+        <v>-0.1786525158373433</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02491620792701532</v>
+        <v>0.6660703859481892</v>
       </c>
       <c r="P14" t="n">
-        <v>136.9357102838975</v>
+        <v>21.79220293555443</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.2871356008577</v>
+        <v>33.98096118423643</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_11</t>
+          <t>model_3_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9990183287362271</v>
+        <v>0.3125110213678282</v>
       </c>
       <c r="C15" t="n">
-        <v>0.712617192965562</v>
+        <v>-0.4259047133279659</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977194395272309</v>
+        <v>0.3093403339682986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9975650661240923</v>
+        <v>-0.3782859718514218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9984938784900719</v>
+        <v>0.3132101096925528</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005827624681661495</v>
+        <v>0.408123155693585</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1706028485465044</v>
+        <v>0.8464786337078499</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005360771990024789</v>
+        <v>0.6728616044482909</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0008585232823880483</v>
+        <v>0.2895515937931832</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006972988553771372</v>
+        <v>0.481206599120737</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01663884524676659</v>
+        <v>0.4169814805380874</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02414047365248142</v>
+        <v>0.6388451734916567</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000636759738664</v>
+        <v>-0.1785525347980088</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02516818359353707</v>
+        <v>0.6660421351190153</v>
       </c>
       <c r="P15" t="n">
-        <v>136.8954617697655</v>
+        <v>21.79237259587205</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.2468870867258</v>
+        <v>33.98113084455405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_10</t>
+          <t>model_3_9_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9989983761092228</v>
+        <v>0.3134093715296185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7125038394727906</v>
+        <v>-0.4262981369567624</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9976735457111876</v>
+        <v>0.3197690845744839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9975150802123123</v>
+        <v>-0.4265120715632298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9984631911097654</v>
+        <v>0.3132305344135111</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000594607209464502</v>
+        <v>0.4075898562308399</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1706701400764294</v>
+        <v>0.8467121869689194</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005468651735594949</v>
+        <v>0.6627015991513451</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0008761476086497415</v>
+        <v>0.2996829774966867</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007115063911046182</v>
+        <v>0.4811922883240158</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01680795867527506</v>
+        <v>0.4177482059402328</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02438456908506898</v>
+        <v>0.6384276436925643</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000649701983207</v>
+        <v>-0.1770125059492254</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02542267067403709</v>
+        <v>0.6656068302119698</v>
       </c>
       <c r="P16" t="n">
-        <v>136.855219045151</v>
+        <v>21.79498772904233</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.2066443621113</v>
+        <v>33.98374597772433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_9</t>
+          <t>model_3_9_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9989780117082866</v>
+        <v>0.313416752105755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7123892558715488</v>
+        <v>-0.4263697377349864</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9976267704414926</v>
+        <v>0.3198989095564261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9974640283464506</v>
+        <v>-0.427124747059338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9984318785837198</v>
+        <v>0.3132289416316554</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00060669639755657</v>
+        <v>0.4075854748020209</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1707381618518804</v>
+        <v>0.8467546922838658</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005578603459568533</v>
+        <v>0.6625751197144482</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0008941477752600955</v>
+        <v>0.2998116889324839</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007260033546143004</v>
+        <v>0.481193404323466</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01697880473414612</v>
+        <v>0.4177570374952644</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02463120779735679</v>
+        <v>0.6384242122617382</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000662911324355</v>
+        <v>-0.1769998535329913</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02567980930691951</v>
+        <v>0.6656032526980292</v>
       </c>
       <c r="P17" t="n">
-        <v>136.8149641216019</v>
+        <v>21.7950092283623</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.1663894385622</v>
+        <v>33.9837674770443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_8</t>
+          <t>model_3_9_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9989572354865526</v>
+        <v>0.313372348192944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7122732638548388</v>
+        <v>-0.4266558443434192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9975789655260857</v>
+        <v>0.3191092038995366</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9974120214275092</v>
+        <v>-0.4233662527007243</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9983999379538335</v>
+        <v>0.313243379979666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006190300602638859</v>
+        <v>0.4076118348828147</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1708070197235937</v>
+        <v>0.8469245375257934</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005690975507825225</v>
+        <v>0.6633444749287024</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000912484680092832</v>
+        <v>0.2990221009558049</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0007407911154376772</v>
+        <v>0.4811832879422537</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01715130819969949</v>
+        <v>0.4176994462850639</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02488031471392365</v>
+        <v>0.6384448565716656</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000676387792506</v>
+        <v>-0.1770759745263817</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02593952122064704</v>
+        <v>0.66562477587897</v>
       </c>
       <c r="P18" t="n">
-        <v>136.7747134476708</v>
+        <v>21.79487988504632</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.126138764631</v>
+        <v>33.98363813372833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_7</t>
+          <t>model_3_9_15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9989360349509588</v>
+        <v>0.3131760985633187</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7121558743392009</v>
+        <v>-0.4275666173562747</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9975302342384119</v>
+        <v>0.3161421262863434</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9973589084839429</v>
+        <v>-0.4093070010286175</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9983673409704449</v>
+        <v>0.3132883115572969</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006316156140077781</v>
+        <v>0.4077283371405029</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1708767072110394</v>
+        <v>0.84746521172957</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0005805525121886706</v>
+        <v>0.6662350919742968</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0009312115535816758</v>
+        <v>0.2960685203402164</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007558827525040042</v>
+        <v>0.4811518061572565</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01732560744241159</v>
+        <v>0.4174731587519704</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02513196399026105</v>
+        <v>0.6385360891449307</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00069013949127</v>
+        <v>-0.177412402462882</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02620188372766392</v>
+        <v>0.6657198924117563</v>
       </c>
       <c r="P19" t="n">
-        <v>136.7344591090668</v>
+        <v>21.79430833338002</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.0858844260271</v>
+        <v>33.98306658206202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_6</t>
+          <t>model_3_9_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9989144153530405</v>
+        <v>0.3134298640029689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7120371937259916</v>
+        <v>-0.4276015663341932</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9974805164420949</v>
+        <v>0.3201535233074218</v>
       </c>
       <c r="E20" t="n">
-        <v>0.997304694198786</v>
+        <v>-0.4283471603740368</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9983340820063106</v>
+        <v>0.3132226951840009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006444499412501438</v>
+        <v>0.4075776910134303</v>
       </c>
       <c r="H20" t="n">
-        <v>0.170947161149776</v>
+        <v>0.8474859589525797</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0005922393660601184</v>
+        <v>0.6623270672720725</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0009503267445549431</v>
+        <v>0.300068494654064</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007712808710947357</v>
+        <v>0.4811977809630683</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01750161625348004</v>
+        <v>0.4177762640585999</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02538601861754111</v>
+        <v>0.638418116138186</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000704163014244</v>
+        <v>-0.1769773759949105</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02646675398639288</v>
+        <v>0.6655968970498768</v>
       </c>
       <c r="P20" t="n">
-        <v>136.6942268185526</v>
+        <v>21.79504742335892</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.0456521355128</v>
+        <v>33.98380567204093</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_5</t>
+          <t>model_3_9_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9988923425811528</v>
+        <v>0.3131880251744185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7119169126638617</v>
+        <v>-0.4277638582197048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9974297797770485</v>
+        <v>0.3163059053773124</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9972494012792773</v>
+        <v>-0.4100825045187253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9983001537667487</v>
+        <v>0.3132859138689543</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0006575532921367501</v>
+        <v>0.4077212569889512</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1710185651841276</v>
+        <v>0.8475823024264637</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006041657190814616</v>
+        <v>0.6660755334140617</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0009698222467609901</v>
+        <v>0.2962314388318348</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007869888484759808</v>
+        <v>0.4811534861229482</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01767947689475833</v>
+        <v>0.4174862523088159</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02564280195565122</v>
+        <v>0.6385305450712215</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000718480487901</v>
+        <v>-0.177391956843854</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02673446912282113</v>
+        <v>0.6657141123153516</v>
       </c>
       <c r="P21" t="n">
-        <v>136.6539694890349</v>
+        <v>21.79434306343128</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.0053948059952</v>
+        <v>33.98310131211328</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_4</t>
+          <t>model_3_9_14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9988698286350358</v>
+        <v>0.3128866173315992</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7117952706923603</v>
+        <v>-0.4283855835163604</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9973780047079049</v>
+        <v>0.3128273947723923</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9971929557069201</v>
+        <v>-0.3940211371553084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9982655103435242</v>
+        <v>0.3132754354353509</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006709185431036166</v>
+        <v>0.4079001857045897</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1710907771130705</v>
+        <v>0.8479513854196928</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006163361633104328</v>
+        <v>0.6694644039994326</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009897241580760765</v>
+        <v>0.2928572518970812</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0008030279390816273</v>
+        <v>0.4811608279482569</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01785906500826825</v>
+        <v>0.4172326480535696</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02590209534195287</v>
+        <v>0.6386706394571381</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000733084128625</v>
+        <v>-0.1779086560029728</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02700480116538894</v>
+        <v>0.665860170809312</v>
       </c>
       <c r="P22" t="n">
-        <v>136.6137256492611</v>
+        <v>21.79346555477767</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.9651509662213</v>
+        <v>33.98222380345968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_3</t>
+          <t>model_3_9_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9988468555042068</v>
+        <v>0.3134800022067934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7116722255481174</v>
+        <v>-0.4293962246051743</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9973252459115893</v>
+        <v>0.3212105048773288</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9971353964457383</v>
+        <v>-0.4334400314552178</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9982301946106342</v>
+        <v>0.3131940282680461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0006845563859513174</v>
+        <v>0.4075479268097824</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1711638220259665</v>
+        <v>0.8485513456274347</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006287378461815165</v>
+        <v>0.6612973237529725</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001010018740335813</v>
+        <v>0.3011384097287697</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008193782932586649</v>
+        <v>0.4812178667408711</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01804047897523983</v>
+        <v>0.4178558454624702</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02616402847329358</v>
+        <v>0.6383948048110842</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000747985618893</v>
+        <v>-0.1768914247883542</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02727788533240716</v>
+        <v>0.6655725933113192</v>
       </c>
       <c r="P23" t="n">
-        <v>136.573479082486</v>
+        <v>21.7951934828276</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.9249043994463</v>
+        <v>33.98395173150961</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_2</t>
+          <t>model_3_9_18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9988234209961444</v>
+        <v>0.3133155615456715</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7115476291873</v>
+        <v>-0.429874748842703</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9972713504498202</v>
+        <v>0.3181267297479711</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9970766829528653</v>
+        <v>-0.4186431118181593</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9981941482339598</v>
+        <v>0.3132684175528433</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006984681222552176</v>
+        <v>0.407645545889691</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1712377878080302</v>
+        <v>0.8488354182860025</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0006414067179475363</v>
+        <v>0.6643016310599553</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001030720288382164</v>
+        <v>0.2980298591437379</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0008360669183329751</v>
+        <v>0.4811657451018466</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01822360689044452</v>
+        <v>0.4176206241041449</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02642854748667088</v>
+        <v>0.6384712569017427</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000763186380879</v>
+        <v>-0.1771733230645631</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02755366546781377</v>
+        <v>0.6656523001257546</v>
       </c>
       <c r="P24" t="n">
-        <v>136.5332420354771</v>
+        <v>21.794714484486</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.8846673524374</v>
+        <v>33.98347273316801</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_1</t>
+          <t>model_3_9_17</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9987994930610564</v>
+        <v>0.313304851419365</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7114216562082791</v>
+        <v>-0.430027859126817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9972164255954898</v>
+        <v>0.3179746758346906</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9970167066600925</v>
+        <v>-0.4179402298712926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9981573818896948</v>
+        <v>0.3132680796961024</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007126727781564317</v>
+        <v>0.40765190388332</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1713125708101264</v>
+        <v>0.8489263111646724</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006543175626353194</v>
+        <v>0.6644497665962903</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001051867081831569</v>
+        <v>0.2978821970531992</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0008530888714777863</v>
+        <v>0.4811659818247447</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01840881843755715</v>
+        <v>0.4176109495248493</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02669593186529423</v>
+        <v>0.6384762359581756</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000778707203639</v>
+        <v>-0.1771916832810885</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02783243295299708</v>
+        <v>0.665657491150928</v>
       </c>
       <c r="P25" t="n">
-        <v>136.4929763591213</v>
+        <v>21.79468329099396</v>
       </c>
       <c r="Q25" t="n">
-        <v>210.8444016760815</v>
+        <v>33.98344153967597</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_9_0</t>
+          <t>model_3_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9987750815758016</v>
+        <v>0.3135272373363146</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7112940302350842</v>
+        <v>-0.4310058384464885</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9971602769595945</v>
+        <v>0.3223810803045019</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9969555543227664</v>
+        <v>-0.4391175997183465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9981198322645748</v>
+        <v>0.3131566787293121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0007271644903249164</v>
+        <v>0.4075198859964473</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1713883351009698</v>
+        <v>0.8495068819353363</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006675160740617773</v>
+        <v>0.6601569136511622</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001073428531974573</v>
+        <v>0.302331158529115</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0008704734652462588</v>
+        <v>0.4812440360901387</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0185958082520007</v>
+        <v>0.4179438081102746</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02696598765713795</v>
+        <v>0.6383728424646895</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000794541680561</v>
+        <v>-0.1768104502806034</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02811398557899215</v>
+        <v>0.6655496959823701</v>
       </c>
       <c r="P26" t="n">
-        <v>136.4527156939591</v>
+        <v>21.79533109500124</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.8041410109194</v>
+        <v>33.98408934368324</v>
       </c>
     </row>
   </sheetData>
